--- a/doc/20210525_scRNAseq_info.xlsx
+++ b/doc/20210525_scRNAseq_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yah2014/Dropbox/Public/Olivier/Projects/scRNAseq-MCL_TCR_BCR/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B512A7-CFD8-8940-B8DA-2E9E2968B279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D535C1E0-3DC9-8C4B-83A3-EFE5974FE40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28960" yWindow="3380" windowWidth="31960" windowHeight="20480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29020" yWindow="7980" windowWidth="31960" windowHeight="20480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="8" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="106">
   <si>
     <t>Date</t>
   </si>
@@ -182,9 +182,6 @@
     <t>Sample.ID</t>
   </si>
   <si>
-    <t>sequencing</t>
-  </si>
-  <si>
     <t>BCR</t>
   </si>
   <si>
@@ -210,13 +207,157 @@
   </si>
   <si>
     <t>Sample</t>
+  </si>
+  <si>
+    <t>Estimated.Number.of.Cells</t>
+  </si>
+  <si>
+    <t>Mean.Read.Pairs.per.Cell</t>
+  </si>
+  <si>
+    <t>Number.of.Cells.With.Productive.V.J.Spanning.Pair</t>
+  </si>
+  <si>
+    <t>Number.of.Read.Pairs</t>
+  </si>
+  <si>
+    <t>Valid.Barcodes</t>
+  </si>
+  <si>
+    <t>Q30.Bases.in.Barcode</t>
+  </si>
+  <si>
+    <t>Q30.Bases.in.RNA.Read.1</t>
+  </si>
+  <si>
+    <t>Q30.Bases.in.UMI</t>
+  </si>
+  <si>
+    <t>Reads.Mapped.to.Any.V.D.J.Gene</t>
+  </si>
+  <si>
+    <t>Reads.Mapped.to.IGH</t>
+  </si>
+  <si>
+    <t>Reads.Mapped.to.IGK</t>
+  </si>
+  <si>
+    <t>Reads.Mapped.to.IGL</t>
+  </si>
+  <si>
+    <t>Mean.Used.Read.Pairs.per.Cell</t>
+  </si>
+  <si>
+    <t>Fraction.Reads.in.Cells</t>
+  </si>
+  <si>
+    <t>Median.IGH.UMIs.per.Cell</t>
+  </si>
+  <si>
+    <t>Median.IGK.UMIs.per.Cell</t>
+  </si>
+  <si>
+    <t>Median.IGL.UMIs.per.Cell</t>
+  </si>
+  <si>
+    <t>Cells.With.Productive.V.J.Spanning.Pair</t>
+  </si>
+  <si>
+    <t>Cells.With.Productive.V.J.Spanning..IGK..IGH..Pair</t>
+  </si>
+  <si>
+    <t>Cells.With.Productive.V.J.Spanning..IGL..IGH..Pair</t>
+  </si>
+  <si>
+    <t>Paired.Clonotype.Diversity</t>
+  </si>
+  <si>
+    <t>Cells.With.IGH.Contig</t>
+  </si>
+  <si>
+    <t>Cells.With.IGK.Contig</t>
+  </si>
+  <si>
+    <t>Cells.With.IGL.Contig</t>
+  </si>
+  <si>
+    <t>Cells.With.CDR3.annotated.IGH.Contig</t>
+  </si>
+  <si>
+    <t>Cells.With.CDR3.annotated.IGK.Contig</t>
+  </si>
+  <si>
+    <t>Cells.With.CDR3.annotated.IGL.Contig</t>
+  </si>
+  <si>
+    <t>Cells.With.V.J.Spanning.IGH.Contig</t>
+  </si>
+  <si>
+    <t>Cells.With.V.J.Spanning.IGK.Contig</t>
+  </si>
+  <si>
+    <t>Cells.With.V.J.Spanning.IGL.Contig</t>
+  </si>
+  <si>
+    <t>Cells.With.Productive.IGH.Contig</t>
+  </si>
+  <si>
+    <t>Cells.With.Productive.IGK.Contig</t>
+  </si>
+  <si>
+    <t>Cells.With.Productive.IGL.Contig</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>11-BCR</t>
+  </si>
+  <si>
+    <t>11-GEX</t>
+  </si>
+  <si>
+    <t>11-TCR</t>
+  </si>
+  <si>
+    <t>12-BCR</t>
+  </si>
+  <si>
+    <t>12-GEX</t>
+  </si>
+  <si>
+    <t>12-TCR</t>
+  </si>
+  <si>
+    <t>14-BCR</t>
+  </si>
+  <si>
+    <t>14-GEX</t>
+  </si>
+  <si>
+    <t>14-TCR</t>
+  </si>
+  <si>
+    <t>15-BCR</t>
+  </si>
+  <si>
+    <t>15-GEX</t>
+  </si>
+  <si>
+    <t>15-TCR</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>Sequencing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -259,6 +400,12 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -268,7 +415,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -276,6 +423,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -429,13 +625,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="149"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="150">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -924,1163 +1132,4920 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7FBC5F7-0A14-1140-8366-8B8297CF09AB}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:AS37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="64.6640625" customWidth="1"/>
-    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="64.6640625" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:45" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
+      <c r="N1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:45" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3">
+      <c r="G2" s="3">
         <v>44321</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="4"/>
+      <c r="M2" s="6">
+        <v>13107</v>
+      </c>
+      <c r="N2" s="6">
+        <v>3350</v>
+      </c>
+      <c r="O2" s="6">
+        <v>12083</v>
+      </c>
+      <c r="P2" s="6">
+        <v>43913690</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="R2" s="7">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="S2" s="7">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="T2" s="7">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="U2" s="7">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="V2" s="7">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="W2" s="7">
+        <v>0.499</v>
+      </c>
+      <c r="X2" s="7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>2110</v>
+      </c>
+      <c r="Z2" s="7">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="AA2" s="8">
+        <v>17</v>
+      </c>
+      <c r="AB2" s="8">
+        <v>32</v>
+      </c>
+      <c r="AC2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="7">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="AE2" s="7">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="AF2" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="AG2" s="8">
+        <v>1.01</v>
+      </c>
+      <c r="AH2" s="7">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="AI2" s="7">
+        <v>0.996</v>
+      </c>
+      <c r="AJ2" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="AK2" s="7">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="AL2" s="7">
+        <v>0.996</v>
+      </c>
+      <c r="AM2" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="AN2" s="7">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="AO2" s="7">
+        <v>0.996</v>
+      </c>
+      <c r="AP2" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="AQ2" s="7">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="AR2" s="7">
+        <v>0.995</v>
+      </c>
+      <c r="AS2" s="9">
+        <v>1E-3</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:45" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3">
+      <c r="G3" s="3">
         <v>44321</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="4"/>
+      <c r="M3" s="10">
+        <v>17454</v>
+      </c>
+      <c r="N3" s="10">
+        <v>17106</v>
+      </c>
+      <c r="O3" s="10">
+        <v>1280</v>
+      </c>
+      <c r="P3" s="10">
+        <v>298571097</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="R3" s="11">
+        <v>0.435</v>
+      </c>
+      <c r="S3" s="11">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="T3" s="11">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="U3" s="11">
+        <v>0.92</v>
+      </c>
+      <c r="V3" s="11">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="W3" s="11">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="X3" s="11">
+        <v>6.3E-2</v>
+      </c>
+      <c r="Y3" s="11">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="Z3" s="11">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="AA3" s="11">
+        <v>0.436</v>
+      </c>
+      <c r="AB3" s="11">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="AC3" s="11">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="AD3" s="10">
+        <v>22415</v>
+      </c>
+      <c r="AE3" s="10">
+        <v>3581</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS3" s="12" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:45" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3">
+      <c r="G4" s="3">
         <v>44321</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="4"/>
+      <c r="M4">
+        <v>813</v>
+      </c>
+      <c r="N4" s="10">
+        <v>67192</v>
+      </c>
+      <c r="O4">
+        <v>341</v>
+      </c>
+      <c r="P4" s="10">
+        <v>54626801</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>0.752</v>
+      </c>
+      <c r="R4" s="11">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="S4" s="11">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="T4" s="11">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="U4" s="11">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="V4" s="11">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="W4" s="11">
+        <v>0.13</v>
+      </c>
+      <c r="X4" s="10">
+        <v>2945</v>
+      </c>
+      <c r="Y4" s="11">
+        <v>0.09</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>7</v>
+      </c>
+      <c r="AB4" s="11">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="AC4" s="11">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="AD4">
+        <v>62.23</v>
+      </c>
+      <c r="AE4" s="11">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="AF4" s="11">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="AG4" s="11">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="AH4" s="11">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="AI4" s="11">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="AJ4" s="11">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="AK4" s="11">
+        <v>0.438</v>
+      </c>
+      <c r="AL4" s="11">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS4" s="12" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:45" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3">
+      <c r="G5" s="3">
         <v>44321</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="4"/>
+      <c r="M5" s="10">
+        <v>18395</v>
+      </c>
+      <c r="N5" s="10">
+        <v>2417</v>
+      </c>
+      <c r="O5" s="10">
+        <v>18118</v>
+      </c>
+      <c r="P5" s="10">
+        <v>44458341</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="R5" s="11">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="S5" s="11">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="T5" s="11">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="U5" s="11">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="V5" s="11">
+        <v>0.34</v>
+      </c>
+      <c r="W5" s="11">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="X5" s="11">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="Y5" s="10">
+        <v>1783</v>
+      </c>
+      <c r="Z5" s="11">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="AA5">
+        <v>37</v>
+      </c>
+      <c r="AB5">
+        <v>56</v>
+      </c>
+      <c r="AC5">
+        <v>27</v>
+      </c>
+      <c r="AD5" s="11">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="AE5" s="11">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="AF5" s="11">
+        <v>1E-3</v>
+      </c>
+      <c r="AG5">
+        <v>1.02</v>
+      </c>
+      <c r="AH5" s="11">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="AI5" s="11">
+        <v>0.998</v>
+      </c>
+      <c r="AJ5" s="11">
+        <v>0.18</v>
+      </c>
+      <c r="AK5" s="11">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="AL5" s="11">
+        <v>0.998</v>
+      </c>
+      <c r="AM5" s="11">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AN5" s="11">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="AO5" s="11">
+        <v>0.998</v>
+      </c>
+      <c r="AP5" s="11">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AQ5" s="11">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="AR5" s="11">
+        <v>0.998</v>
+      </c>
+      <c r="AS5" s="13">
+        <v>2E-3</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:45" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3">
+      <c r="G6" s="3">
         <v>44321</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="4"/>
+      <c r="M6" s="10">
+        <v>21205</v>
+      </c>
+      <c r="N6" s="10">
+        <v>14720</v>
+      </c>
+      <c r="O6" s="10">
+        <v>1352</v>
+      </c>
+      <c r="P6" s="10">
+        <v>312134965</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="R6" s="11">
+        <v>0.435</v>
+      </c>
+      <c r="S6" s="11">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="T6" s="11">
+        <v>0.92</v>
+      </c>
+      <c r="U6" s="11">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="V6" s="11">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="W6" s="11">
+        <v>0.71</v>
+      </c>
+      <c r="X6" s="11">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="Y6" s="11">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="Z6" s="11">
+        <v>0.496</v>
+      </c>
+      <c r="AA6" s="11">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="AB6" s="11">
+        <v>6.2E-2</v>
+      </c>
+      <c r="AC6" s="11">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="AD6" s="10">
+        <v>23815</v>
+      </c>
+      <c r="AE6" s="10">
+        <v>2650</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS6" s="12" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:45" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2">
         <v>2</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3">
+      <c r="G7" s="3">
         <v>44321</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="4"/>
+      <c r="M7" s="10">
+        <v>2209</v>
+      </c>
+      <c r="N7" s="10">
+        <v>23430</v>
+      </c>
+      <c r="O7" s="10">
+        <v>1885</v>
+      </c>
+      <c r="P7" s="10">
+        <v>51757840</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="R7" s="11">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="S7" s="11">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="T7" s="11">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="U7" s="11">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="V7" s="11">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="W7" s="11">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="X7" s="10">
+        <v>5053</v>
+      </c>
+      <c r="Y7" s="11">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="Z7">
+        <v>6</v>
+      </c>
+      <c r="AA7">
+        <v>14</v>
+      </c>
+      <c r="AB7" s="11">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="AC7" s="11">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="AD7">
+        <v>1982.8</v>
+      </c>
+      <c r="AE7" s="11">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="AF7" s="11">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="AG7" s="11">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="AH7" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="AI7" s="11">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="AJ7" s="11">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="AK7" s="11">
+        <v>0.877</v>
+      </c>
+      <c r="AL7" s="11">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS7" s="12" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:45" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2">
         <v>3</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>44321</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="4"/>
+      <c r="M8" s="10">
+        <v>14463</v>
+      </c>
+      <c r="N8" s="10">
+        <v>4323</v>
+      </c>
+      <c r="O8" s="10">
+        <v>14358</v>
+      </c>
+      <c r="P8" s="10">
+        <v>62529381</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>0.94</v>
+      </c>
+      <c r="R8" s="11">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="S8" s="11">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="T8" s="11">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="U8" s="11">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="V8" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="W8" s="11">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="X8" s="11">
+        <v>0.154</v>
+      </c>
+      <c r="Y8" s="10">
+        <v>3155</v>
+      </c>
+      <c r="Z8" s="11">
+        <v>0.872</v>
+      </c>
+      <c r="AA8">
+        <v>33</v>
+      </c>
+      <c r="AB8">
+        <v>48</v>
+      </c>
+      <c r="AC8">
+        <v>22</v>
+      </c>
+      <c r="AD8" s="11">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="AE8" s="11">
+        <v>0.99</v>
+      </c>
+      <c r="AF8" s="11">
+        <v>2E-3</v>
+      </c>
+      <c r="AG8">
+        <v>1.03</v>
+      </c>
+      <c r="AH8" s="11">
+        <v>0.995</v>
+      </c>
+      <c r="AI8" s="11">
+        <v>0.997</v>
+      </c>
+      <c r="AJ8" s="11">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="AK8" s="11">
+        <v>0.995</v>
+      </c>
+      <c r="AL8" s="11">
+        <v>0.996</v>
+      </c>
+      <c r="AM8" s="11">
+        <v>2E-3</v>
+      </c>
+      <c r="AN8" s="11">
+        <v>0.995</v>
+      </c>
+      <c r="AO8" s="11">
+        <v>0.997</v>
+      </c>
+      <c r="AP8" s="11">
+        <v>2E-3</v>
+      </c>
+      <c r="AQ8" s="11">
+        <v>0.995</v>
+      </c>
+      <c r="AR8" s="11">
+        <v>0.996</v>
+      </c>
+      <c r="AS8" s="13">
+        <v>2E-3</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:45" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2">
         <v>3</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>44321</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="4"/>
+      <c r="M9" s="10">
+        <v>16598</v>
+      </c>
+      <c r="N9" s="10">
+        <v>15535</v>
+      </c>
+      <c r="O9" s="10">
+        <v>1472</v>
+      </c>
+      <c r="P9" s="10">
+        <v>257848132</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="R9" s="11">
+        <v>0.432</v>
+      </c>
+      <c r="S9" s="11">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="T9" s="11">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="U9" s="11">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="V9" s="11">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="W9" s="11">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="X9" s="11">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="Y9" s="11">
+        <v>0.128</v>
+      </c>
+      <c r="Z9" s="11">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="AA9" s="11">
+        <v>0.43</v>
+      </c>
+      <c r="AB9" s="11">
+        <v>6.2E-2</v>
+      </c>
+      <c r="AC9" s="11">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="AD9" s="10">
+        <v>23609</v>
+      </c>
+      <c r="AE9" s="10">
+        <v>2941</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS9" s="12" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:45" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2">
         <v>3</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>44321</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="4"/>
+      <c r="M10">
+        <v>482</v>
+      </c>
+      <c r="N10" s="10">
+        <v>124391</v>
+      </c>
+      <c r="O10">
+        <v>393</v>
+      </c>
+      <c r="P10" s="10">
+        <v>59956692</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="R10" s="11">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="S10" s="11">
+        <v>0.93</v>
+      </c>
+      <c r="T10" s="11">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="U10" s="11">
+        <v>0.316</v>
+      </c>
+      <c r="V10" s="11">
+        <v>2.4E-2</v>
+      </c>
+      <c r="W10" s="11">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="X10" s="10">
+        <v>6525</v>
+      </c>
+      <c r="Y10" s="11">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="Z10">
+        <v>6</v>
+      </c>
+      <c r="AA10">
+        <v>15</v>
+      </c>
+      <c r="AB10" s="11">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="AC10" s="11">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="AD10">
+        <v>389.81</v>
+      </c>
+      <c r="AE10" s="11">
+        <v>0.878</v>
+      </c>
+      <c r="AF10" s="11">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="AG10" s="11">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="AH10" s="11">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="AI10" s="11">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="AJ10" s="11">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="AK10" s="11">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="AL10" s="11">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS10" s="12" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:45" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2">
         <v>4</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3">
+      <c r="G11" s="3">
         <v>44321</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K11" s="4"/>
+      <c r="M11" s="10">
+        <v>3794</v>
+      </c>
+      <c r="N11" s="10">
+        <v>11071</v>
+      </c>
+      <c r="O11" s="10">
+        <v>3563</v>
+      </c>
+      <c r="P11" s="10">
+        <v>42001990</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="R11" s="11">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="S11" s="11">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="T11" s="11">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="U11" s="11">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="V11" s="11">
+        <v>0.245</v>
+      </c>
+      <c r="W11" s="11">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="X11" s="11">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="Y11" s="10">
+        <v>2589</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="AA11">
+        <v>58</v>
+      </c>
+      <c r="AB11">
+        <v>39</v>
+      </c>
+      <c r="AC11">
+        <v>322</v>
+      </c>
+      <c r="AD11" s="11">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="AE11" s="11">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="AF11" s="11">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="AG11">
+        <v>3</v>
+      </c>
+      <c r="AH11" s="11">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="AI11" s="11">
+        <v>0.308</v>
+      </c>
+      <c r="AJ11" s="11">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="AK11" s="11">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="AL11" s="11">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="AM11" s="11">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="AN11" s="11">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="AO11" s="11">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="AP11" s="11">
+        <v>0.77</v>
+      </c>
+      <c r="AQ11" s="11">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="AR11" s="11">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="AS11" s="13">
+        <v>0.72499999999999998</v>
+      </c>
     </row>
-    <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:45" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2">
         <v>4</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>44321</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="4"/>
+      <c r="M12" s="10">
+        <v>20525</v>
+      </c>
+      <c r="N12" s="10">
+        <v>12672</v>
+      </c>
+      <c r="O12" s="10">
+        <v>1165</v>
+      </c>
+      <c r="P12" s="10">
+        <v>260087584</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="R12" s="11">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="S12" s="11">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="T12" s="11">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="U12" s="11">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="V12" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="W12" s="11">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="X12" s="11">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="Y12" s="11">
+        <v>0.104</v>
+      </c>
+      <c r="Z12" s="11">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="AA12" s="11">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="AB12" s="11">
+        <v>4.7E-2</v>
+      </c>
+      <c r="AC12" s="11">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="AD12" s="10">
+        <v>23762</v>
+      </c>
+      <c r="AE12" s="10">
+        <v>2437</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS12" s="12" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:45" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2">
         <v>4</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3">
+      <c r="G13" s="3">
         <v>44321</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K13" s="4"/>
+      <c r="M13" s="10">
+        <v>2135</v>
+      </c>
+      <c r="N13" s="10">
+        <v>24665</v>
+      </c>
+      <c r="O13" s="10">
+        <v>1752</v>
+      </c>
+      <c r="P13" s="10">
+        <v>52659286</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="R13" s="11">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="S13" s="11">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T13" s="11">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="U13" s="11">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="V13" s="11">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="W13" s="11">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="X13" s="10">
+        <v>3062</v>
+      </c>
+      <c r="Y13" s="11">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="Z13">
+        <v>6</v>
+      </c>
+      <c r="AA13">
+        <v>15</v>
+      </c>
+      <c r="AB13" s="11">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="AC13" s="11">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="AD13">
+        <v>1779.86</v>
+      </c>
+      <c r="AE13" s="11">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="AF13" s="11">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="AG13" s="11">
+        <v>0.875</v>
+      </c>
+      <c r="AH13" s="11">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="AI13" s="11">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="AJ13" s="11">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="AK13" s="11">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="AL13" s="11">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS13" s="12" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:45" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2">
         <v>5</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>44321</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="4"/>
+      <c r="M14" s="10">
+        <v>19367</v>
+      </c>
+      <c r="N14" s="10">
+        <v>3376</v>
+      </c>
+      <c r="O14" s="10">
+        <v>18901</v>
+      </c>
+      <c r="P14" s="10">
+        <v>65385797</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="R14" s="11">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="S14" s="11">
+        <v>0.94</v>
+      </c>
+      <c r="T14" s="11">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="U14" s="11">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="V14" s="11">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="W14" s="11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="X14" s="11">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="Y14" s="10">
+        <v>2585</v>
+      </c>
+      <c r="Z14" s="11">
+        <v>0.88</v>
+      </c>
+      <c r="AA14">
+        <v>46</v>
+      </c>
+      <c r="AB14">
+        <v>30</v>
+      </c>
+      <c r="AC14">
+        <v>95</v>
+      </c>
+      <c r="AD14" s="11">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="AE14" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="AF14" s="11">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="AG14">
+        <v>1.06</v>
+      </c>
+      <c r="AH14" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="AI14" s="11">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="AJ14" s="11">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="AK14" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="AL14" s="11">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AM14" s="11">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="AN14" s="11">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="AO14" s="11">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AP14" s="11">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="AQ14" s="11">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="AR14" s="11">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AS14" s="13">
+        <v>0.98399999999999999</v>
+      </c>
     </row>
-    <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:45" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2">
         <v>5</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>44321</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="4"/>
+      <c r="M15" s="10">
+        <v>21186</v>
+      </c>
+      <c r="N15" s="10">
+        <v>12763</v>
+      </c>
+      <c r="O15" s="10">
+        <v>1267</v>
+      </c>
+      <c r="P15" s="10">
+        <v>270402986</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="R15" s="11">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="S15" s="11">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="T15" s="11">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="U15" s="11">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="V15" s="11">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="W15" s="11">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="X15" s="11">
+        <v>0.06</v>
+      </c>
+      <c r="Y15" s="11">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="Z15" s="11">
+        <v>0.53</v>
+      </c>
+      <c r="AA15" s="11">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="AB15" s="11">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="AC15" s="11">
+        <v>0.874</v>
+      </c>
+      <c r="AD15" s="10">
+        <v>23151</v>
+      </c>
+      <c r="AE15" s="10">
+        <v>2785</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS15" s="12" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:45" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2">
         <v>5</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3">
+      <c r="G16" s="3">
         <v>44321</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="L16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K16" s="4"/>
+      <c r="M16">
+        <v>789</v>
+      </c>
+      <c r="N16" s="10">
+        <v>62551</v>
+      </c>
+      <c r="O16">
+        <v>632</v>
+      </c>
+      <c r="P16" s="10">
+        <v>49352697</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="R16" s="11">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="S16" s="11">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="T16" s="11">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="U16" s="11">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="V16" s="11">
+        <v>3.1E-2</v>
+      </c>
+      <c r="W16" s="11">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="X16" s="10">
+        <v>3134</v>
+      </c>
+      <c r="Y16" s="11">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="Z16">
+        <v>5</v>
+      </c>
+      <c r="AA16">
+        <v>14</v>
+      </c>
+      <c r="AB16" s="11">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="AC16" s="11">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="AD16">
+        <v>546.54999999999995</v>
+      </c>
+      <c r="AE16" s="11">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="AF16" s="11">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="AG16" s="11">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="AH16" s="11">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="AI16" s="11">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="AJ16" s="11">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="AK16" s="11">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="AL16" s="11">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS16" s="12" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:45" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2">
         <v>6</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>44321</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="L17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K17" s="4"/>
+      <c r="M17" s="10">
+        <v>14423</v>
+      </c>
+      <c r="N17" s="10">
+        <v>3994</v>
+      </c>
+      <c r="O17" s="10">
+        <v>12122</v>
+      </c>
+      <c r="P17" s="10">
+        <v>57602030</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="R17" s="11">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="S17" s="11">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="T17" s="11">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="U17" s="11">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="V17" s="11">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="W17" s="11">
+        <v>0.185</v>
+      </c>
+      <c r="X17" s="11">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="Y17" s="10">
+        <v>2306</v>
+      </c>
+      <c r="Z17" s="11">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="AA17">
+        <v>28</v>
+      </c>
+      <c r="AB17">
+        <v>28</v>
+      </c>
+      <c r="AC17">
+        <v>90</v>
+      </c>
+      <c r="AD17" s="11">
+        <v>0.84</v>
+      </c>
+      <c r="AE17" s="11">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="AF17" s="11">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="AG17">
+        <v>5.08</v>
+      </c>
+      <c r="AH17" s="11">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="AI17" s="11">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="AJ17" s="11">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="AK17" s="11">
+        <v>0.88</v>
+      </c>
+      <c r="AL17" s="11">
+        <v>0.309</v>
+      </c>
+      <c r="AM17" s="11">
+        <v>0.755</v>
+      </c>
+      <c r="AN17" s="11">
+        <v>0.876</v>
+      </c>
+      <c r="AO17" s="11">
+        <v>0.314</v>
+      </c>
+      <c r="AP17" s="11">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="AQ17" s="11">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="AR17" s="11">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="AS17" s="13">
+        <v>0.71899999999999997</v>
+      </c>
     </row>
-    <row r="18" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:45" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2">
         <v>6</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>44321</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="L18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K18" s="4"/>
+      <c r="M18" s="10">
+        <v>18185</v>
+      </c>
+      <c r="N18" s="10">
+        <v>16573</v>
+      </c>
+      <c r="O18" s="10">
+        <v>1340</v>
+      </c>
+      <c r="P18" s="10">
+        <v>301384443</v>
+      </c>
+      <c r="Q18" s="11">
+        <v>0.871</v>
+      </c>
+      <c r="R18" s="11">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="S18" s="11">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="T18" s="11">
+        <v>0.92</v>
+      </c>
+      <c r="U18" s="11">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="V18" s="11">
+        <v>0.91</v>
+      </c>
+      <c r="W18" s="11">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="X18" s="11">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="Y18" s="11">
+        <v>0.123</v>
+      </c>
+      <c r="Z18" s="11">
+        <v>0.52</v>
+      </c>
+      <c r="AA18" s="11">
+        <v>0.443</v>
+      </c>
+      <c r="AB18" s="11">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="AC18" s="11">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="AD18" s="10">
+        <v>24340</v>
+      </c>
+      <c r="AE18" s="10">
+        <v>2908</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS18" s="12" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="19" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:45" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2">
         <v>6</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="3">
+      <c r="G19" s="3">
         <v>44321</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="K19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K19" s="4"/>
+      <c r="M19" s="10">
+        <v>3608</v>
+      </c>
+      <c r="N19" s="10">
+        <v>13672</v>
+      </c>
+      <c r="O19" s="10">
+        <v>2928</v>
+      </c>
+      <c r="P19" s="10">
+        <v>49329979</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="R19" s="11">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="S19" s="11">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="T19" s="11">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="U19" s="11">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="V19" s="11">
+        <v>6.3E-2</v>
+      </c>
+      <c r="W19" s="11">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="X19" s="10">
+        <v>2433</v>
+      </c>
+      <c r="Y19" s="11">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="Z19">
+        <v>6</v>
+      </c>
+      <c r="AA19">
+        <v>16</v>
+      </c>
+      <c r="AB19" s="11">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="AC19" s="11">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="AD19">
+        <v>2678.53</v>
+      </c>
+      <c r="AE19" s="11">
+        <v>0.874</v>
+      </c>
+      <c r="AF19" s="11">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="AG19" s="11">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="AH19" s="11">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="AI19" s="11">
+        <v>0.86</v>
+      </c>
+      <c r="AJ19" s="11">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="AK19" s="11">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="AL19" s="11">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS19" s="12" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="20" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:45" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2">
         <v>7</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>44321</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="K20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="L20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K20" s="4"/>
+      <c r="M20" s="10">
+        <v>18023</v>
+      </c>
+      <c r="N20" s="10">
+        <v>2851</v>
+      </c>
+      <c r="O20" s="10">
+        <v>17492</v>
+      </c>
+      <c r="P20" s="10">
+        <v>51374764</v>
+      </c>
+      <c r="Q20" s="11">
+        <v>0.95</v>
+      </c>
+      <c r="R20" s="11">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="S20" s="11">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="T20" s="11">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="U20" s="11">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="V20" s="11">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="W20" s="11">
+        <v>1.9E-2</v>
+      </c>
+      <c r="X20" s="11">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="Y20" s="10">
+        <v>2068</v>
+      </c>
+      <c r="Z20" s="11">
+        <v>0.879</v>
+      </c>
+      <c r="AA20">
+        <v>97</v>
+      </c>
+      <c r="AB20">
+        <v>1</v>
+      </c>
+      <c r="AC20">
+        <v>119</v>
+      </c>
+      <c r="AD20" s="11">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="AE20" s="11">
+        <v>2E-3</v>
+      </c>
+      <c r="AF20" s="11">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="AG20">
+        <v>1.06</v>
+      </c>
+      <c r="AH20" s="11">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="AI20" s="11">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AJ20" s="11">
+        <v>0.996</v>
+      </c>
+      <c r="AK20" s="11">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="AL20" s="11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AM20" s="11">
+        <v>0.995</v>
+      </c>
+      <c r="AN20" s="11">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="AO20" s="11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AP20" s="11">
+        <v>0.996</v>
+      </c>
+      <c r="AQ20" s="11">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="AR20" s="11">
+        <v>2E-3</v>
+      </c>
+      <c r="AS20" s="13">
+        <v>0.99299999999999999</v>
+      </c>
     </row>
-    <row r="21" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:45" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2">
         <v>7</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>44321</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="K21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="L21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K21" s="4"/>
+      <c r="M21" s="10">
+        <v>22268</v>
+      </c>
+      <c r="N21" s="10">
+        <v>13920</v>
+      </c>
+      <c r="O21" s="10">
+        <v>1331</v>
+      </c>
+      <c r="P21" s="10">
+        <v>309961226</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>0.879</v>
+      </c>
+      <c r="R21" s="11">
+        <v>0.313</v>
+      </c>
+      <c r="S21" s="11">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="T21" s="11">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="U21" s="11">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="V21" s="11">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="W21" s="11">
+        <v>0.751</v>
+      </c>
+      <c r="X21" s="11">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="Y21" s="11">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="Z21" s="11">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="AA21" s="11">
+        <v>0.52</v>
+      </c>
+      <c r="AB21" s="11">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="AC21" s="11">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="AD21" s="10">
+        <v>23978</v>
+      </c>
+      <c r="AE21" s="10">
+        <v>3983</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS21" s="12" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="22" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:45" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2">
         <v>7</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>44321</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="K22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="L22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K22" s="4"/>
+      <c r="M22" s="10">
+        <v>4008</v>
+      </c>
+      <c r="N22" s="10">
+        <v>14105</v>
+      </c>
+      <c r="O22" s="10">
+        <v>3192</v>
+      </c>
+      <c r="P22" s="10">
+        <v>56534114</v>
+      </c>
+      <c r="Q22" s="11">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="R22" s="11">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="S22" s="11">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T22" s="11">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="U22" s="11">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="V22" s="11">
+        <v>0.06</v>
+      </c>
+      <c r="W22" s="11">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="X22" s="10">
+        <v>2452</v>
+      </c>
+      <c r="Y22" s="11">
+        <v>0.307</v>
+      </c>
+      <c r="Z22">
+        <v>6</v>
+      </c>
+      <c r="AA22">
+        <v>17</v>
+      </c>
+      <c r="AB22" s="11">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="AC22" s="11">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="AD22">
+        <v>2708.95</v>
+      </c>
+      <c r="AE22" s="11">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="AF22" s="11">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="AG22" s="11">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="AH22" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="AI22" s="11">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="AJ22" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="AK22" s="11">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="AL22" s="11">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS22" s="12" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="23" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:45" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2">
         <v>8</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>44321</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="K23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="L23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K23" s="4"/>
+      <c r="M23" s="10">
+        <v>7501</v>
+      </c>
+      <c r="N23" s="10">
+        <v>5785</v>
+      </c>
+      <c r="O23" s="10">
+        <v>6011</v>
+      </c>
+      <c r="P23" s="10">
+        <v>43395396</v>
+      </c>
+      <c r="Q23" s="11">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="R23" s="11">
+        <v>0.95</v>
+      </c>
+      <c r="S23" s="11">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="T23" s="11">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="U23" s="11">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="V23" s="11">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="W23" s="11">
+        <v>0</v>
+      </c>
+      <c r="X23" s="11">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="Y23" s="10">
+        <v>4642</v>
+      </c>
+      <c r="Z23" s="11">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="AA23">
+        <v>45</v>
+      </c>
+      <c r="AB23">
+        <v>40</v>
+      </c>
+      <c r="AC23">
+        <v>266</v>
+      </c>
+      <c r="AD23" s="11">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="AE23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="11">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="AG23">
+        <v>1.48</v>
+      </c>
+      <c r="AH23" s="11">
+        <v>0.81</v>
+      </c>
+      <c r="AI23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="11">
+        <v>0.999</v>
+      </c>
+      <c r="AK23" s="11">
+        <v>0.81</v>
+      </c>
+      <c r="AL23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="11">
+        <v>0.999</v>
+      </c>
+      <c r="AN23" s="11">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="AO23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP23" s="11">
+        <v>0.999</v>
+      </c>
+      <c r="AQ23" s="11">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="AR23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="13">
+        <v>0.999</v>
+      </c>
     </row>
-    <row r="24" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:45" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2">
         <v>8</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="G24" s="3">
+        <v>44321</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M24" s="10">
+        <v>11155</v>
+      </c>
+      <c r="N24" s="10">
+        <v>21460</v>
+      </c>
+      <c r="O24" s="10">
+        <v>1411</v>
+      </c>
+      <c r="P24" s="10">
+        <v>239387806</v>
+      </c>
+      <c r="Q24" s="11">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="R24" s="11">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="S24" s="11">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="T24" s="11">
+        <v>0.91</v>
+      </c>
+      <c r="U24" s="11">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="V24" s="11">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="W24" s="11">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="X24" s="11">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="Y24" s="11">
+        <v>0.11</v>
+      </c>
+      <c r="Z24" s="11">
+        <v>0.41</v>
+      </c>
+      <c r="AA24" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="AB24" s="11">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="AC24" s="11">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="AD24" s="10">
+        <v>22556</v>
+      </c>
+      <c r="AE24" s="10">
+        <v>3126</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS24" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:45" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="2">
+        <v>11</v>
+      </c>
+      <c r="G25" s="3">
+        <v>44321</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M25" s="10">
+        <v>20139</v>
+      </c>
+      <c r="N25" s="10">
+        <v>2591</v>
+      </c>
+      <c r="O25" s="10">
+        <v>19514</v>
+      </c>
+      <c r="P25" s="10">
+        <v>52173538</v>
+      </c>
+      <c r="Q25" s="11">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="R25" s="11">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="S25" s="11">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="T25" s="11">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="U25" s="11">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="V25" s="11">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="W25" s="11">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="X25" s="11">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="Y25" s="10">
+        <v>2016</v>
+      </c>
+      <c r="Z25" s="11">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="AA25">
+        <v>38</v>
+      </c>
+      <c r="AB25">
+        <v>29</v>
+      </c>
+      <c r="AC25">
+        <v>115</v>
+      </c>
+      <c r="AD25" s="11">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="AE25" s="11">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AF25" s="11">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="AG25">
+        <v>1.08</v>
+      </c>
+      <c r="AH25" s="11">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="AI25" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="AJ25" s="11">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="AK25" s="11">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="AL25" s="11">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AM25" s="11">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="AN25" s="11">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="AO25" s="11">
+        <v>1.9E-2</v>
+      </c>
+      <c r="AP25" s="11">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="AQ25" s="11">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="AR25" s="11">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="AS25" s="13">
+        <v>0.98099999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:45" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="2">
+        <v>11</v>
+      </c>
+      <c r="G26" s="3">
+        <v>44287</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M26" s="10">
+        <v>21618</v>
+      </c>
+      <c r="N26" s="10">
+        <v>16856</v>
+      </c>
+      <c r="O26" s="10">
+        <v>1768</v>
+      </c>
+      <c r="P26" s="10">
+        <v>364401793</v>
+      </c>
+      <c r="Q26" s="11">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="R26" s="11">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="S26" s="11">
+        <v>0.96</v>
+      </c>
+      <c r="T26" s="11">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="U26" s="11">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="V26" s="11">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="W26" s="11">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="X26" s="11">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="Y26" s="11">
+        <v>0.113</v>
+      </c>
+      <c r="Z26" s="11">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="AA26" s="11">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="AB26" s="11">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="AC26" s="11">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="AD26" s="10">
+        <v>24553</v>
+      </c>
+      <c r="AE26" s="10">
+        <v>3826</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS26" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:45" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="3">
+      <c r="E27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="2">
+        <v>11</v>
+      </c>
+      <c r="G27" s="3">
         <v>44321</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="I27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="J27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="K27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K24" s="4"/>
+      <c r="L27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M27">
+        <v>741</v>
+      </c>
+      <c r="N27" s="10">
+        <v>74454</v>
+      </c>
+      <c r="O27">
+        <v>618</v>
+      </c>
+      <c r="P27" s="10">
+        <v>55170635</v>
+      </c>
+      <c r="Q27" s="11">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="R27" s="11">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="S27" s="11">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="T27" s="11">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="U27" s="11">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="V27" s="11">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="W27" s="11">
+        <v>0.222</v>
+      </c>
+      <c r="X27" s="10">
+        <v>4342</v>
+      </c>
+      <c r="Y27" s="11">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="Z27">
+        <v>6</v>
+      </c>
+      <c r="AA27">
+        <v>18</v>
+      </c>
+      <c r="AB27" s="11">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="AC27" s="11">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="AD27">
+        <v>538.84</v>
+      </c>
+      <c r="AE27" s="11">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="AF27" s="11">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="AG27" s="11">
+        <v>0.872</v>
+      </c>
+      <c r="AH27" s="11">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="AI27" s="11">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="AJ27" s="11">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="AK27" s="11">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="AL27" s="11">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS27" s="12" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="25" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="2">
-        <v>11</v>
-      </c>
-      <c r="C25" s="2" t="s">
+    <row r="28" spans="1:45" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="2">
+        <v>12</v>
+      </c>
+      <c r="G28" s="3">
+        <v>44321</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M28" s="10">
+        <v>13192</v>
+      </c>
+      <c r="N28" s="10">
+        <v>4225</v>
+      </c>
+      <c r="O28" s="10">
+        <v>13126</v>
+      </c>
+      <c r="P28" s="10">
+        <v>55737533</v>
+      </c>
+      <c r="Q28" s="11">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="R28" s="11">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="S28" s="11">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="T28" s="11">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="U28" s="11">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="V28" s="11">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="W28" s="11">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="X28" s="11">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="Y28" s="10">
+        <v>3113</v>
+      </c>
+      <c r="Z28" s="11">
+        <v>0.877</v>
+      </c>
+      <c r="AA28">
+        <v>27</v>
+      </c>
+      <c r="AB28">
+        <v>36</v>
+      </c>
+      <c r="AC28">
+        <v>52</v>
+      </c>
+      <c r="AD28" s="11">
+        <v>0.995</v>
+      </c>
+      <c r="AE28" s="11">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="AF28" s="11">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AG28">
+        <v>1.03</v>
+      </c>
+      <c r="AH28" s="11">
+        <v>0.996</v>
+      </c>
+      <c r="AI28" s="11">
+        <v>0.997</v>
+      </c>
+      <c r="AJ28" s="11">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="AK28" s="11">
+        <v>0.996</v>
+      </c>
+      <c r="AL28" s="11">
+        <v>0.996</v>
+      </c>
+      <c r="AM28" s="11">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AN28" s="11">
+        <v>0.996</v>
+      </c>
+      <c r="AO28" s="11">
+        <v>0.997</v>
+      </c>
+      <c r="AP28" s="11">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="AQ28" s="11">
+        <v>0.995</v>
+      </c>
+      <c r="AR28" s="11">
+        <v>0.996</v>
+      </c>
+      <c r="AS28" s="13">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:45" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="3">
+      <c r="F29" s="2">
+        <v>12</v>
+      </c>
+      <c r="G29" s="3">
+        <v>44287</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M29" s="10">
+        <v>18164</v>
+      </c>
+      <c r="N29" s="10">
+        <v>17219</v>
+      </c>
+      <c r="O29" s="10">
+        <v>1511</v>
+      </c>
+      <c r="P29" s="10">
+        <v>312771687</v>
+      </c>
+      <c r="Q29" s="11">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="R29" s="11">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="S29" s="11">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="T29" s="11">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="U29" s="11">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="V29" s="11">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="W29" s="11">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="X29" s="11">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="Y29" s="11">
+        <v>0.124</v>
+      </c>
+      <c r="Z29" s="11">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="AA29" s="11">
+        <v>0.439</v>
+      </c>
+      <c r="AB29" s="11">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="AC29" s="11">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="AD29" s="10">
+        <v>23852</v>
+      </c>
+      <c r="AE29" s="10">
+        <v>3259</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS29" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:45" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" s="2">
+        <v>12</v>
+      </c>
+      <c r="G30" s="3">
         <v>44321</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="I30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="J30" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="K30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="L30" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="M30" s="10">
+        <v>2354</v>
+      </c>
+      <c r="N30" s="10">
+        <v>23185</v>
+      </c>
+      <c r="O30" s="10">
+        <v>1974</v>
+      </c>
+      <c r="P30" s="10">
+        <v>54578031</v>
+      </c>
+      <c r="Q30" s="11">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="R30" s="11">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="S30" s="11">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="T30" s="11">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="U30" s="11">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="V30" s="11">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="W30" s="11">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="X30" s="10">
+        <v>5276</v>
+      </c>
+      <c r="Y30" s="11">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="Z30">
+        <v>6</v>
+      </c>
+      <c r="AA30">
+        <v>16</v>
+      </c>
+      <c r="AB30" s="11">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="AC30" s="11">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="AD30">
+        <v>1698.75</v>
+      </c>
+      <c r="AE30" s="11">
+        <v>0.89</v>
+      </c>
+      <c r="AF30" s="11">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="AG30" s="11">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="AH30" s="11">
+        <v>0.99</v>
+      </c>
+      <c r="AI30" s="11">
+        <v>0.88</v>
+      </c>
+      <c r="AJ30" s="11">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="AK30" s="11">
+        <v>0.85</v>
+      </c>
+      <c r="AL30" s="11">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS30" s="12" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="26" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="2">
-        <v>11</v>
-      </c>
-      <c r="C26" s="2" t="s">
+    <row r="31" spans="1:45" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="2">
+        <v>14</v>
+      </c>
+      <c r="G31" s="3">
+        <v>44321</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M31" s="10">
+        <v>16059</v>
+      </c>
+      <c r="N31" s="10">
+        <v>3599</v>
+      </c>
+      <c r="O31" s="10">
+        <v>15544</v>
+      </c>
+      <c r="P31" s="10">
+        <v>57797941</v>
+      </c>
+      <c r="Q31" s="11">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="R31" s="11">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="S31" s="11">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="T31" s="11">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="U31" s="11">
+        <v>0.73</v>
+      </c>
+      <c r="V31" s="11">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="W31" s="11">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="X31" s="11">
+        <v>0.439</v>
+      </c>
+      <c r="Y31" s="10">
+        <v>2269</v>
+      </c>
+      <c r="Z31" s="11">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="AA31">
+        <v>23</v>
+      </c>
+      <c r="AB31">
+        <v>35</v>
+      </c>
+      <c r="AC31">
+        <v>71</v>
+      </c>
+      <c r="AD31" s="11">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="AE31" s="11">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AF31" s="11">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="AG31">
+        <v>1.02</v>
+      </c>
+      <c r="AH31" s="11">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="AI31" s="11">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="AJ31" s="11">
+        <v>0.997</v>
+      </c>
+      <c r="AK31" s="11">
+        <v>0.97</v>
+      </c>
+      <c r="AL31" s="11">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AM31" s="11">
+        <v>0.997</v>
+      </c>
+      <c r="AN31" s="11">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="AO31" s="11">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="AP31" s="11">
+        <v>0.997</v>
+      </c>
+      <c r="AQ31" s="11">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="AR31" s="11">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AS31" s="13">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:45" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="2">
+        <v>14</v>
+      </c>
+      <c r="G32" s="3">
+        <v>44287</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M32" s="10">
+        <v>22010</v>
+      </c>
+      <c r="N32" s="10">
+        <v>14248</v>
+      </c>
+      <c r="O32" s="10">
+        <v>1664</v>
+      </c>
+      <c r="P32" s="10">
+        <v>313608959</v>
+      </c>
+      <c r="Q32" s="11">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="R32" s="11">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="S32" s="11">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="T32" s="11">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="U32" s="11">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="V32" s="11">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="W32" s="11">
+        <v>0.747</v>
+      </c>
+      <c r="X32" s="11">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="Y32" s="11">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="Z32" s="11">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="AA32" s="11">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="AB32" s="11">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="AC32" s="11">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="AD32" s="10">
+        <v>24301</v>
+      </c>
+      <c r="AE32" s="10">
+        <v>3254</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS32" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:45" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="3">
+      <c r="E33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="2">
+        <v>14</v>
+      </c>
+      <c r="G33" s="3">
+        <v>44321</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M33" s="10">
+        <v>3596</v>
+      </c>
+      <c r="N33" s="10">
+        <v>14324</v>
+      </c>
+      <c r="O33" s="10">
+        <v>2906</v>
+      </c>
+      <c r="P33" s="10">
+        <v>51508459</v>
+      </c>
+      <c r="Q33" s="11">
+        <v>0.84</v>
+      </c>
+      <c r="R33" s="11">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="S33" s="11">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="T33" s="11">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="U33" s="11">
+        <v>0.377</v>
+      </c>
+      <c r="V33" s="11">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="W33" s="11">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="X33" s="10">
+        <v>2423</v>
+      </c>
+      <c r="Y33" s="11">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="Z33">
+        <v>6</v>
+      </c>
+      <c r="AA33">
+        <v>14</v>
+      </c>
+      <c r="AB33" s="11">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="AC33" s="11">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="AD33">
+        <v>2108.12</v>
+      </c>
+      <c r="AE33" s="11">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="AF33" s="11">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="AG33" s="11">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="AH33" s="11">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="AI33" s="11">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="AJ33" s="11">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="AK33" s="11">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="AL33" s="11">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS33" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:45" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="2">
+        <v>15</v>
+      </c>
+      <c r="G34" s="3">
+        <v>44321</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M34" s="10">
+        <v>16396</v>
+      </c>
+      <c r="N34" s="10">
+        <v>3239</v>
+      </c>
+      <c r="O34" s="10">
+        <v>15758</v>
+      </c>
+      <c r="P34" s="10">
+        <v>53106177</v>
+      </c>
+      <c r="Q34" s="11">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="R34" s="11">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="S34" s="11">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="T34" s="11">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="U34" s="11">
+        <v>0.86</v>
+      </c>
+      <c r="V34" s="11">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="W34" s="11">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="X34" s="11">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="Y34" s="10">
+        <v>2154</v>
+      </c>
+      <c r="Z34" s="11">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="AA34">
+        <v>35</v>
+      </c>
+      <c r="AB34">
+        <v>46</v>
+      </c>
+      <c r="AC34">
+        <v>100</v>
+      </c>
+      <c r="AD34" s="11">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="AE34" s="11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AF34" s="11">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="AG34">
+        <v>1.03</v>
+      </c>
+      <c r="AH34" s="11">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="AI34" s="11">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="AJ34" s="11">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="AK34" s="11">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="AL34" s="11">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AM34" s="11">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="AN34" s="11">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="AO34" s="11">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AP34" s="11">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="AQ34" s="11">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="AR34" s="11">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AS34" s="13">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:45" ht="18" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="2">
+        <v>15</v>
+      </c>
+      <c r="G35" s="3">
         <v>44287</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="I35" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="J35" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="K35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="L35" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="M35" s="10">
+        <v>17756</v>
+      </c>
+      <c r="N35" s="10">
+        <v>21095</v>
+      </c>
+      <c r="O35" s="10">
+        <v>1710</v>
+      </c>
+      <c r="P35" s="10">
+        <v>374578379</v>
+      </c>
+      <c r="Q35" s="11">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="R35" s="11">
+        <v>0.49</v>
+      </c>
+      <c r="S35" s="11">
+        <v>0.96</v>
+      </c>
+      <c r="T35" s="11">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="U35" s="11">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="V35" s="11">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="W35" s="11">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="X35" s="11">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="Y35" s="11">
+        <v>0.112</v>
+      </c>
+      <c r="Z35" s="11">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="AA35" s="11">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="AB35" s="11">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="AC35" s="11">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="AD35" s="10">
+        <v>23941</v>
+      </c>
+      <c r="AE35" s="10">
+        <v>3763</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR35" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS35" s="12" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="27" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="2">
-        <v>11</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="3">
+    <row r="36" spans="1:45" ht="18" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="2">
+        <v>15</v>
+      </c>
+      <c r="G36" s="3">
         <v>44321</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="I36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="J36" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="K36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="L36" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="M36" s="14">
+        <v>2272</v>
+      </c>
+      <c r="N36" s="14">
+        <v>22127</v>
+      </c>
+      <c r="O36" s="14">
+        <v>1929</v>
+      </c>
+      <c r="P36" s="14">
+        <v>50272179</v>
+      </c>
+      <c r="Q36" s="15">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="R36" s="15">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="S36" s="15">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="T36" s="15">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="U36" s="15">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="V36" s="15">
+        <v>7.8E-2</v>
+      </c>
+      <c r="W36" s="15">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="X36" s="14">
+        <v>3581</v>
+      </c>
+      <c r="Y36" s="15">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="Z36" s="16">
+        <v>6</v>
+      </c>
+      <c r="AA36" s="16">
+        <v>14</v>
+      </c>
+      <c r="AB36" s="15">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="AC36" s="15">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="AD36" s="16">
+        <v>235.23</v>
+      </c>
+      <c r="AE36" s="15">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="AF36" s="15">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="AG36" s="15">
+        <v>0.89</v>
+      </c>
+      <c r="AH36" s="15">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="AI36" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="AJ36" s="15">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="AK36" s="15">
+        <v>0.876</v>
+      </c>
+      <c r="AL36" s="15">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="AM36" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN36" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO36" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP36" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ36" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR36" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS36" s="17" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="28" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="2">
-        <v>12</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="3">
-        <v>44321</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="2">
-        <v>12</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="3">
-        <v>44287</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="2">
-        <v>12</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="3">
-        <v>44321</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="2">
-        <v>14</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="3">
-        <v>44321</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="2">
-        <v>14</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" s="3">
-        <v>44287</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="2">
-        <v>14</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" s="3">
-        <v>44321</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="2">
-        <v>15</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E34" s="3">
-        <v>44321</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="2">
-        <v>15</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E35" s="3">
-        <v>44287</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="2">
-        <v>15</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="3">
-        <v>44321</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
+    <row r="37" spans="1:45" ht="18" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="3"/>
+      <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
+      <c r="G37" s="3"/>
       <c r="H37" s="2"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="5"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
